--- a/file/gunpo-si.xlsx
+++ b/file/gunpo-si.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{918A5FE8-2A93-49AF-B81E-39011CEC31AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E9213-9405-40B4-BDCC-4E115F125DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38355" yWindow="7515" windowWidth="21600" windowHeight="11235" xr2:uid="{DD159FCC-58F5-45FD-A9FE-051373E4E43B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD159FCC-58F5-45FD-A9FE-051373E4E43B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
-    <t>아이디</t>
-  </si>
-  <si>
     <t>아파트명</t>
   </si>
   <si>
@@ -276,6 +273,10 @@
   </si>
   <si>
     <t>한양수리</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -704,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5583D4A-6D13-4DAA-9C5C-D689CA544E07}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -716,10 +717,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -727,7 +728,7 @@
         <v>3580</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -735,7 +736,7 @@
         <v>175758</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -743,7 +744,7 @@
         <v>2908</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -751,7 +752,7 @@
         <v>2878</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -759,7 +760,7 @@
         <v>2880</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -767,7 +768,7 @@
         <v>2881</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -775,7 +776,7 @@
         <v>2622</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -783,7 +784,7 @@
         <v>8386</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -791,7 +792,7 @@
         <v>2890</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -799,7 +800,7 @@
         <v>3865</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -807,7 +808,7 @@
         <v>129842</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -815,7 +816,7 @@
         <v>7998</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -823,7 +824,7 @@
         <v>114455</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -831,7 +832,7 @@
         <v>121277</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -839,7 +840,7 @@
         <v>119404</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -847,7 +848,7 @@
         <v>14470</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -855,7 +856,7 @@
         <v>1664</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -863,7 +864,7 @@
         <v>1665</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -871,7 +872,7 @@
         <v>23047</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -879,7 +880,7 @@
         <v>8333</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -887,7 +888,7 @@
         <v>104999</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -895,7 +896,7 @@
         <v>2571</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -903,7 +904,7 @@
         <v>3581</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -911,7 +912,7 @@
         <v>12089</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -919,7 +920,7 @@
         <v>2572</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -927,7 +928,7 @@
         <v>2573</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -935,7 +936,7 @@
         <v>2574</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -943,7 +944,7 @@
         <v>105975</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -951,7 +952,7 @@
         <v>14490</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -959,7 +960,7 @@
         <v>100143</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -967,7 +968,7 @@
         <v>12939</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -975,7 +976,7 @@
         <v>8146</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -983,7 +984,7 @@
         <v>26398</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -991,7 +992,7 @@
         <v>24088</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -999,7 +1000,7 @@
         <v>118214</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1007,7 +1008,7 @@
         <v>111115</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1015,7 +1016,7 @@
         <v>113266</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1023,7 +1024,7 @@
         <v>118123</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1031,7 +1032,7 @@
         <v>102615</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1039,7 +1040,7 @@
         <v>104996</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1047,7 +1048,7 @@
         <v>138694</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1055,7 +1056,7 @@
         <v>104998</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1063,7 +1064,7 @@
         <v>101482</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1071,7 +1072,7 @@
         <v>101480</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1079,7 +1080,7 @@
         <v>101481</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1087,7 +1088,7 @@
         <v>18607</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1095,7 +1096,7 @@
         <v>2886</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1103,7 +1104,7 @@
         <v>114454</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1111,7 +1112,7 @@
         <v>2625</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1119,7 +1120,7 @@
         <v>7964</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1127,7 +1128,7 @@
         <v>2626</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1135,7 +1136,7 @@
         <v>2896</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1143,7 +1144,7 @@
         <v>2627</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1151,7 +1152,7 @@
         <v>2483</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1159,7 +1160,7 @@
         <v>2892</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1167,7 +1168,7 @@
         <v>101283</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1175,7 +1176,7 @@
         <v>2628</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1183,7 +1184,7 @@
         <v>2889</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1191,7 +1192,7 @@
         <v>2891</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1199,7 +1200,7 @@
         <v>2894</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1208,7 @@
         <v>3584</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1215,7 +1216,7 @@
         <v>2905</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1223,7 +1224,7 @@
         <v>2629</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1231,7 +1232,7 @@
         <v>2904</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1239,7 +1240,7 @@
         <v>2630</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1248,7 @@
         <v>3864</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1255,7 +1256,7 @@
         <v>2895</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1263,7 +1264,7 @@
         <v>2897</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1271,7 +1272,7 @@
         <v>2898</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1279,7 +1280,7 @@
         <v>2887</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1287,7 +1288,7 @@
         <v>2901</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1295,7 +1296,7 @@
         <v>2903</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1303,7 +1304,7 @@
         <v>2906</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1311,7 +1312,7 @@
         <v>13865</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1319,7 +1320,7 @@
         <v>8960</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1327,7 +1328,7 @@
         <v>2888</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1335,7 +1336,7 @@
         <v>2893</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1343,7 +1344,7 @@
         <v>7963</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
